--- a/config_5.25/act_hhl_ty_config.xlsx
+++ b/config_5.25/act_hhl_ty_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>line|</t>
   </si>
@@ -103,6 +103,9 @@
     <t>help_info_cjj</t>
   </si>
   <si>
+    <t>19,20,21,22,23,24,25,26,27,28</t>
+  </si>
+  <si>
     <t>line</t>
   </si>
   <si>
@@ -302,6 +305,60 @@
     <t>icon_yc</t>
   </si>
   <si>
+    <t>500元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf500</t>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
+  </si>
+  <si>
+    <t>100元话费</t>
+  </si>
+  <si>
+    <t>700万金币</t>
+  </si>
+  <si>
+    <t>act_011_hhl_pay_icon_gold8</t>
+  </si>
+  <si>
+    <t>50元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf50</t>
+  </si>
+  <si>
+    <t>400万金币</t>
+  </si>
+  <si>
+    <t>act_011_hhl_pay_icon_gold7</t>
+  </si>
+  <si>
+    <t>150万小游戏币</t>
+  </si>
+  <si>
+    <t>act_011_hhl_ty_icon_yxb_5</t>
+  </si>
+  <si>
+    <t>10元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf10</t>
+  </si>
+  <si>
+    <t>50万鱼币</t>
+  </si>
+  <si>
+    <t>act_011_hhl_ty_icon_yb_5</t>
+  </si>
+  <si>
+    <t>2元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf2</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -365,19 +422,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +459,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -423,9 +479,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,22 +495,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,6 +504,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,6 +564,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -526,14 +581,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,7 +609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,103 +636,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,79 +792,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,6 +835,63 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,63 +921,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -879,10 +929,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,10 +941,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -903,21 +953,24 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,102 +980,99 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,55 +1091,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,13 +1497,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -1456,7 +1512,7 @@
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
   </cols>
@@ -1518,7 +1574,7 @@
       <c r="G2" s="18">
         <v>1620662399</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="24" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1550,7 +1606,7 @@
       <c r="G3" s="18">
         <v>1617638399</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="24" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1558,6 +1614,38 @@
       </c>
       <c r="K3" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1621900800</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1622476799</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1569,10 +1657,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1589,22 +1677,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -1615,10 +1703,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="11">
         <v>96000</v>
@@ -1628,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
@@ -1636,10 +1724,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="11">
         <v>60000</v>
@@ -1649,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
@@ -1657,10 +1745,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="11">
         <v>42000</v>
@@ -1670,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -1678,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11">
         <v>30000</v>
@@ -1691,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
@@ -1699,10 +1787,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="10">
         <v>24000</v>
@@ -1712,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
@@ -1720,10 +1808,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="10">
         <v>12000</v>
@@ -1733,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -1741,10 +1829,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="10">
         <v>9000</v>
@@ -1754,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
@@ -1762,10 +1850,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="11">
         <v>6000</v>
@@ -1775,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
@@ -1783,10 +1871,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11">
         <v>3000</v>
@@ -1796,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -1804,10 +1892,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="11">
         <v>2800</v>
@@ -1817,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1825,10 +1913,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="16">
         <v>1080000</v>
@@ -1838,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1846,10 +1934,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="20" t="s">
         <v>54</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="16">
         <v>880000</v>
@@ -1859,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1867,10 +1955,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>37</v>
+        <v>56</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="16">
         <v>130000</v>
@@ -1879,17 +1967,17 @@
       <c r="F14" s="18">
         <v>1</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="16">
         <v>60000</v>
@@ -1898,17 +1986,17 @@
       <c r="F15" s="18">
         <v>0</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="15">
         <v>18000</v>
@@ -1917,17 +2005,17 @@
       <c r="F16" s="18">
         <v>0</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D17" s="15">
         <v>8000</v>
@@ -1936,17 +2024,17 @@
       <c r="F17" s="18">
         <v>1</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D18" s="15">
         <v>7200</v>
@@ -1955,17 +2043,17 @@
       <c r="F18" s="18">
         <v>0</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="16">
         <v>3666</v>
@@ -1974,7 +2062,207 @@
       <c r="F19" s="18">
         <v>0</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5">
+        <v>300000</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5">
+        <v>60000</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="1:7">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5">
+        <v>42000</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:7">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="5">
+        <v>24000</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="5">
+        <v>12000</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="1:7">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="5">
+        <v>9000</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="1:7">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -1990,7 +2278,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2003,19 +2291,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2026,7 +2314,7 @@
         <v>1000324</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -2040,7 +2328,7 @@
         <v>1000325</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -2054,7 +2342,7 @@
         <v>1000326</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -2068,7 +2356,7 @@
         <v>1000327</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -2082,7 +2370,7 @@
         <v>1000328</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -2096,7 +2384,7 @@
         <v>1000329</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -2110,7 +2398,7 @@
         <v>1000330</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -2124,7 +2412,7 @@
         <v>1000331</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>

--- a/config_5.25/act_hhl_ty_config.xlsx
+++ b/config_5.25/act_hhl_ty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>line|</t>
   </si>
@@ -320,7 +320,7 @@
     <t>700万金币</t>
   </si>
   <si>
-    <t>act_011_hhl_pay_icon_gold8</t>
+    <t>pay_icon_gold8</t>
   </si>
   <si>
     <t>50元话费</t>
@@ -332,15 +332,12 @@
     <t>400万金币</t>
   </si>
   <si>
-    <t>act_011_hhl_pay_icon_gold7</t>
+    <t>pay_icon_gold7</t>
   </si>
   <si>
     <t>150万小游戏币</t>
   </si>
   <si>
-    <t>act_011_hhl_ty_icon_yxb_5</t>
-  </si>
-  <si>
     <t>10元话费</t>
   </si>
   <si>
@@ -350,7 +347,7 @@
     <t>50万鱼币</t>
   </si>
   <si>
-    <t>act_011_hhl_ty_icon_yb_5</t>
+    <t>ty_icon_yb_5</t>
   </si>
   <si>
     <t>2元话费</t>
@@ -422,10 +419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -465,8 +462,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,31 +501,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,17 +516,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,8 +567,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,13 +605,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -636,55 +633,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,37 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,79 +795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,6 +836,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -854,17 +860,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,20 +878,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,10 +926,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,133 +938,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1499,7 +1496,7 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -1659,8 +1656,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2192,7 +2189,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D26" s="5">
         <v>9000</v>
@@ -2209,10 +2206,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="D27" s="5">
         <v>6000</v>
@@ -2229,10 +2226,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="D28" s="5">
         <v>3000</v>
@@ -2249,10 +2246,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="D29" s="5">
         <v>1200</v>
@@ -2291,19 +2288,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2314,7 +2311,7 @@
         <v>1000324</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -2328,7 +2325,7 @@
         <v>1000325</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -2342,7 +2339,7 @@
         <v>1000326</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -2356,7 +2353,7 @@
         <v>1000327</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -2370,7 +2367,7 @@
         <v>1000328</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -2384,7 +2381,7 @@
         <v>1000329</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -2398,7 +2395,7 @@
         <v>1000330</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -2412,7 +2409,7 @@
         <v>1000331</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
